--- a/raw_data/20200818_saline/20200818_Sensor0_Test_69.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_69.xlsx
@@ -1,900 +1,1316 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C1746D-158A-470B-B29B-45EF239D40C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>61202.899598</v>
+        <v>61202.899598000004</v>
       </c>
       <c r="B2" s="1">
         <v>17.000805</v>
       </c>
       <c r="C2" s="1">
-        <v>904.820000</v>
+        <v>904.82</v>
       </c>
       <c r="D2" s="1">
-        <v>-193.335000</v>
+        <v>-193.33500000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>61212.953009</v>
+        <v>61212.953008999997</v>
       </c>
       <c r="G2" s="1">
         <v>17.003598</v>
       </c>
       <c r="H2" s="1">
-        <v>921.505000</v>
+        <v>921.505</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.791000</v>
+        <v>-163.791</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>61223.034691</v>
+        <v>61223.034691000001</v>
       </c>
       <c r="L2" s="1">
-        <v>17.006399</v>
+        <v>17.006398999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>942.703000</v>
+        <v>942.70299999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.654000</v>
+        <v>-117.654</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>61233.212597</v>
+        <v>61233.212596999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.009226</v>
+        <v>17.009226000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>949.348000</v>
+        <v>949.34799999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.946000</v>
+        <v>-102.946</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>61243.481768</v>
+        <v>61243.481767999998</v>
       </c>
       <c r="V2" s="1">
-        <v>17.012078</v>
+        <v>17.012077999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>955.951000</v>
+        <v>955.95100000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.424200</v>
+        <v>-89.424199999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>61253.923587</v>
+        <v>61253.923586999997</v>
       </c>
       <c r="AA2" s="1">
         <v>17.014979</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.085000</v>
+        <v>963.08500000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.273900</v>
+        <v>-80.273899999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>61264.554941</v>
+        <v>61264.554941000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.017932</v>
+        <v>17.017931999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.098000</v>
+        <v>968.09799999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.059900</v>
+        <v>-80.059899999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>61274.634040</v>
+        <v>61274.634039999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.020732</v>
+        <v>17.020731999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.126000</v>
+        <v>976.12599999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.990600</v>
+        <v>-87.990600000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>61285.188369</v>
+        <v>61285.188369000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.023663</v>
+        <v>17.023662999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.398000</v>
+        <v>985.39800000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>61296.215426</v>
+        <v>61296.215426000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.026727</v>
+        <v>17.026727000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.894000</v>
+        <v>996.89400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.897000</v>
+        <v>-124.89700000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>61306.992500</v>
+        <v>61306.9925</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.029720</v>
+        <v>17.029720000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.640000</v>
+        <v>1006.64</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.808000</v>
+        <v>-143.80799999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>61318.319638</v>
+        <v>61318.319638000001</v>
       </c>
       <c r="BE2" s="1">
         <v>17.032867</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.650000</v>
+        <v>1052.6500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.256000</v>
+        <v>-229.256</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>61329.015368</v>
       </c>
       <c r="BJ2" s="1">
-        <v>17.035838</v>
+        <v>17.035837999999998</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.533000</v>
+        <v>-365.53300000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>61340.664905</v>
+        <v>61340.664904999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.039074</v>
+        <v>17.039073999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.810000</v>
+        <v>1266.81</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-574.829000</v>
+        <v>-574.82899999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>61352.278760</v>
+        <v>61352.278760000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>17.042300</v>
+        <v>17.042300000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1415.360000</v>
+        <v>1415.36</v>
       </c>
       <c r="BV2" s="1">
-        <v>-797.478000</v>
+        <v>-797.47799999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>61363.695642</v>
+        <v>61363.695641999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.045471</v>
+        <v>17.045470999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1578.340000</v>
+        <v>1578.34</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1028.900000</v>
+        <v>-1028.9000000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>61374.712778</v>
+        <v>61374.712778000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.048531</v>
+        <v>17.048531000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1987.140000</v>
+        <v>1987.14</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1568.990000</v>
+        <v>-1568.99</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>61203.262216</v>
+        <v>61203.262216000003</v>
       </c>
       <c r="B3" s="1">
-        <v>17.000906</v>
+        <v>17.000906000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>905.097000</v>
+        <v>905.09699999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-193.402000</v>
+        <v>-193.40199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>61213.296737</v>
+        <v>61213.296736999997</v>
       </c>
       <c r="G3" s="1">
-        <v>17.003694</v>
+        <v>17.003693999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>921.375000</v>
+        <v>921.375</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.903000</v>
+        <v>-163.90299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>61223.415618</v>
+        <v>61223.415617999999</v>
       </c>
       <c r="L3" s="1">
         <v>17.006504</v>
       </c>
       <c r="M3" s="1">
-        <v>942.972000</v>
+        <v>942.97199999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.812000</v>
+        <v>-117.812</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>61233.640945</v>
+        <v>61233.640944999999</v>
       </c>
       <c r="Q3" s="1">
         <v>17.009345</v>
       </c>
       <c r="R3" s="1">
-        <v>949.357000</v>
+        <v>949.35699999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.905000</v>
+        <v>-102.905</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>61243.874105</v>
+        <v>61243.874105000003</v>
       </c>
       <c r="V3" s="1">
-        <v>17.012187</v>
+        <v>17.012187000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>955.851000</v>
+        <v>955.851</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.518700</v>
+        <v>-89.518699999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>61254.347131</v>
+        <v>61254.347131000002</v>
       </c>
       <c r="AA3" s="1">
         <v>17.015096</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.100000</v>
+        <v>963.1</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.344200</v>
+        <v>-80.344200000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>61264.898525</v>
+        <v>61264.898524999997</v>
       </c>
       <c r="AF3" s="1">
         <v>17.018027</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.173000</v>
+        <v>968.173</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.035500</v>
+        <v>-80.035499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>61274.986655</v>
+        <v>61274.986655000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.020830</v>
+        <v>17.02083</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.105000</v>
+        <v>976.10500000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.969800</v>
+        <v>-87.969800000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>61285.586160</v>
+        <v>61285.586159999999</v>
       </c>
       <c r="AP3" s="1">
         <v>17.023774</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.389000</v>
+        <v>985.38900000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>61296.626641</v>
+        <v>61296.626641000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.026841</v>
+        <v>17.026841000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.897000</v>
+        <v>996.89700000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.899000</v>
+        <v>-124.899</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>61307.711208</v>
+        <v>61307.711208000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>17.029920</v>
+        <v>17.029920000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.831000</v>
+        <v>-143.83099999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>61318.711014</v>
@@ -903,58 +1319,58 @@
         <v>17.032975</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.250000</v>
+        <v>-229.25</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>61329.426552</v>
+        <v>61329.426551999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.035952</v>
+        <v>17.035952000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.540000</v>
+        <v>-365.54</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>61341.424775</v>
+        <v>61341.424774999999</v>
       </c>
       <c r="BO3" s="1">
         <v>17.039285</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.840000</v>
+        <v>1266.8399999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-574.843000</v>
+        <v>-574.84299999999996</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>61353.039095</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.042511</v>
+        <v>17.042511000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1415.420000</v>
+        <v>1415.42</v>
       </c>
       <c r="BV3" s="1">
-        <v>-797.423000</v>
+        <v>-797.423</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>61363.861803</v>
@@ -963,135 +1379,135 @@
         <v>17.045517</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1578.410000</v>
+        <v>1578.41</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1028.970000</v>
+        <v>-1028.97</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>61375.305498</v>
+        <v>61375.305498000002</v>
       </c>
       <c r="CD3" s="1">
         <v>17.048696</v>
       </c>
       <c r="CE3" s="1">
-        <v>1986.050000</v>
+        <v>1986.05</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1569.550000</v>
+        <v>-1569.55</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>61203.602460</v>
+        <v>61203.602460000002</v>
       </c>
       <c r="B4" s="1">
-        <v>17.001001</v>
+        <v>17.001000999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.825000</v>
+        <v>904.82500000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-193.355000</v>
+        <v>-193.35499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>61213.723791</v>
+        <v>61213.723790999997</v>
       </c>
       <c r="G4" s="1">
         <v>17.003812</v>
       </c>
       <c r="H4" s="1">
-        <v>921.248000</v>
+        <v>921.24800000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.647000</v>
+        <v>-163.64699999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>61223.838210</v>
+        <v>61223.838210000002</v>
       </c>
       <c r="L4" s="1">
         <v>17.006622</v>
       </c>
       <c r="M4" s="1">
-        <v>942.765000</v>
+        <v>942.76499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.779000</v>
+        <v>-117.779</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>61233.977436</v>
+        <v>61233.977436000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>17.009438</v>
+        <v>17.009437999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>949.406000</v>
+        <v>949.40599999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.902000</v>
+        <v>-102.902</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>61244.217867</v>
+        <v>61244.217866999999</v>
       </c>
       <c r="V4" s="1">
         <v>17.012283</v>
       </c>
       <c r="W4" s="1">
-        <v>955.907000</v>
+        <v>955.90700000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.517300</v>
+        <v>-89.517300000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>61254.694827</v>
+        <v>61254.694826999999</v>
       </c>
       <c r="AA4" s="1">
         <v>17.015193</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.109000</v>
+        <v>963.10900000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.288700</v>
+        <v>-80.288700000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>61265.243243</v>
+        <v>61265.243242999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>17.018123</v>
+        <v>17.018122999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.091000</v>
+        <v>968.09100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.865800</v>
+        <v>-79.865799999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>61275.681053</v>
@@ -1100,58 +1516,58 @@
         <v>17.021023</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.134000</v>
+        <v>976.13400000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.979400</v>
+        <v>-87.979399999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>61286.304896</v>
+        <v>61286.304896000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.023974</v>
+        <v>17.023973999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.371000</v>
+        <v>985.37099999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>61296.991171</v>
+        <v>61296.991171000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>17.026942</v>
+        <v>17.026941999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.900000</v>
+        <v>996.9</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.918000</v>
+        <v>-124.91800000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>61308.070839</v>
       </c>
       <c r="AZ4" s="1">
-        <v>17.030020</v>
+        <v>17.03002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.815000</v>
+        <v>-143.815</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>61319.070581</v>
@@ -1160,225 +1576,225 @@
         <v>17.033075</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.260000</v>
+        <v>-229.26</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>61330.116517</v>
+        <v>61330.116517000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.036143</v>
+        <v>17.036142999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.571000</v>
+        <v>-365.57100000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>61341.535384</v>
+        <v>61341.535384000003</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.039315</v>
+        <v>17.039314999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.840000</v>
+        <v>1266.8399999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-574.854000</v>
+        <v>-574.85400000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>61353.158632</v>
+        <v>61353.158631999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.042544</v>
+        <v>17.042543999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1415.370000</v>
+        <v>1415.37</v>
       </c>
       <c r="BV4" s="1">
-        <v>-797.502000</v>
+        <v>-797.50199999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>61364.314648</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.045643</v>
+        <v>17.045642999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1578.450000</v>
+        <v>1578.45</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1029.040000</v>
+        <v>-1029.04</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>61375.838729</v>
+        <v>61375.838729000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>17.048844</v>
+        <v>17.048843999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1987.010000</v>
+        <v>1987.01</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1569.540000</v>
+        <v>-1569.54</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>61204.018109</v>
+        <v>61204.018108999997</v>
       </c>
       <c r="B5" s="1">
         <v>17.001116</v>
       </c>
       <c r="C5" s="1">
-        <v>905.076000</v>
+        <v>905.07600000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-193.290000</v>
+        <v>-193.29</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>61213.982704</v>
+        <v>61213.982704000002</v>
       </c>
       <c r="G5" s="1">
-        <v>17.003884</v>
+        <v>17.003883999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>921.084000</v>
+        <v>921.08399999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-164.118000</v>
+        <v>-164.11799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>61224.138289</v>
+        <v>61224.138289000002</v>
       </c>
       <c r="L5" s="1">
         <v>17.006705</v>
       </c>
       <c r="M5" s="1">
-        <v>942.871000</v>
+        <v>942.87099999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.885000</v>
+        <v>-117.88500000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>61234.330084</v>
+        <v>61234.330084000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.009536</v>
+        <v>17.009536000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>949.383000</v>
+        <v>949.38300000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.959000</v>
+        <v>-102.959</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>61244.562550</v>
+        <v>61244.562550000002</v>
       </c>
       <c r="V5" s="1">
-        <v>17.012378</v>
+        <v>17.012377999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>955.754000</v>
+        <v>955.75400000000002</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.532200</v>
+        <v>-89.532200000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>61255.045532</v>
+        <v>61255.045531999996</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.015290</v>
+        <v>17.01529</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.135000</v>
+        <v>963.13499999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.360000</v>
+        <v>-80.36</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>61265.929210</v>
+        <v>61265.929210000002</v>
       </c>
       <c r="AF5" s="1">
         <v>17.018314</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.054000</v>
+        <v>968.05399999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.015300</v>
+        <v>-80.015299999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>61276.031229</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.021120</v>
+        <v>17.02112</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.120000</v>
+        <v>976.12</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.010100</v>
+        <v>-88.010099999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>61286.664988</v>
+        <v>61286.664987999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.024074</v>
+        <v>17.024073999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.375000</v>
+        <v>985.375</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.122000</v>
+        <v>-103.122</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>61297.359698</v>
@@ -1387,1435 +1803,1435 @@
         <v>17.027044</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.903000</v>
+        <v>996.90300000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.904000</v>
+        <v>-124.904</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>61308.754323</v>
+        <v>61308.754323000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.030210</v>
+        <v>17.03021</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.810000</v>
+        <v>-143.81</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>61319.756581</v>
+        <v>61319.756581000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.033266</v>
+        <v>17.033266000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.240000</v>
+        <v>-229.24</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>61330.585205</v>
+        <v>61330.585205000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.036274</v>
+        <v>17.036273999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.587000</v>
+        <v>-365.58699999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>61341.921797</v>
+        <v>61341.921797000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.039423</v>
+        <v>17.039422999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.820000</v>
+        <v>1266.82</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-574.861000</v>
+        <v>-574.86099999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>61353.596112</v>
+        <v>61353.596111999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.042666</v>
+        <v>17.042666000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1415.410000</v>
+        <v>1415.41</v>
       </c>
       <c r="BV5" s="1">
-        <v>-797.436000</v>
+        <v>-797.43600000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>61364.737241</v>
+        <v>61364.737241000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.045760</v>
+        <v>17.045760000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1578.440000</v>
+        <v>1578.44</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1029.030000</v>
+        <v>-1029.03</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>61376.358041</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.048988</v>
+        <v>17.048988000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1986.790000</v>
+        <v>1986.79</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1569.940000</v>
+        <v>-1569.94</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>61204.294348</v>
+        <v>61204.294348000003</v>
       </c>
       <c r="B6" s="1">
-        <v>17.001193</v>
+        <v>17.001193000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>905.125000</v>
+        <v>905.125</v>
       </c>
       <c r="D6" s="1">
-        <v>-193.469000</v>
+        <v>-193.46899999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>61214.332384</v>
+        <v>61214.332384000001</v>
       </c>
       <c r="G6" s="1">
         <v>17.003981</v>
       </c>
       <c r="H6" s="1">
-        <v>921.187000</v>
+        <v>921.18700000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-163.585000</v>
+        <v>-163.58500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>61224.484037</v>
+        <v>61224.484037000002</v>
       </c>
       <c r="L6" s="1">
-        <v>17.006801</v>
+        <v>17.006800999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>943.101000</v>
+        <v>943.101</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.952000</v>
+        <v>-117.952</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>61234.679269</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.009633</v>
+        <v>17.009633000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>949.353000</v>
+        <v>949.35299999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.980000</v>
+        <v>-102.98</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>61245.247558</v>
+        <v>61245.247558000003</v>
       </c>
       <c r="V6" s="1">
-        <v>17.012569</v>
+        <v>17.012568999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.743000</v>
+        <v>955.74300000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.586800</v>
+        <v>-89.586799999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>61255.742871</v>
+        <v>61255.742871000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.015484</v>
+        <v>17.015484000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.113000</v>
+        <v>963.11300000000006</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.293300</v>
+        <v>-80.293300000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>61266.274426</v>
+        <v>61266.274426000004</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.018410</v>
+        <v>17.018409999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.118000</v>
+        <v>968.11800000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.151900</v>
+        <v>-80.151899999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>61276.379422</v>
+        <v>61276.379421999998</v>
       </c>
       <c r="AK6" s="1">
         <v>17.021217</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.135000</v>
+        <v>976.13499999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.987800</v>
+        <v>-87.987799999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>61287.023103</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.024173</v>
+        <v>17.024173000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.409000</v>
+        <v>985.40899999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.127000</v>
+        <v>-103.127</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>61298.023345</v>
+        <v>61298.023345000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.027229</v>
+        <v>17.027228999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.886000</v>
+        <v>996.88599999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.912000</v>
+        <v>-124.91200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>61309.174411</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.030326</v>
+        <v>17.030325999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.805000</v>
+        <v>-143.80500000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>61320.187571</v>
+        <v>61320.187571000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.033385</v>
+        <v>17.033384999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.620000</v>
+        <v>1052.6199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.254000</v>
+        <v>-229.25399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>61330.973574</v>
+        <v>61330.973574000003</v>
       </c>
       <c r="BJ6" s="1">
         <v>17.036382</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.490000</v>
+        <v>1133.49</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.531000</v>
+        <v>-365.53100000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>61342.346870</v>
+        <v>61342.346870000001</v>
       </c>
       <c r="BO6" s="1">
         <v>17.039541</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-574.856000</v>
+        <v>-574.85599999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>61354.011782</v>
+        <v>61354.011782000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.042781</v>
+        <v>17.042781000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1415.380000</v>
+        <v>1415.38</v>
       </c>
       <c r="BV6" s="1">
-        <v>-797.414000</v>
+        <v>-797.41399999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>61365.164798</v>
+        <v>61365.164797999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>17.045879</v>
+        <v>17.045878999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1028.980000</v>
+        <v>-1028.98</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>61376.909098</v>
+        <v>61376.909097999996</v>
       </c>
       <c r="CD6" s="1">
-        <v>17.049141</v>
+        <v>17.049140999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1986.070000</v>
+        <v>1986.07</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1569.790000</v>
+        <v>-1569.79</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>61204.634140</v>
+        <v>61204.634140000002</v>
       </c>
       <c r="B7" s="1">
-        <v>17.001287</v>
+        <v>17.001287000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>905.140000</v>
+        <v>905.14</v>
       </c>
       <c r="D7" s="1">
-        <v>-193.319000</v>
+        <v>-193.31899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>61214.675969</v>
+        <v>61214.675969000004</v>
       </c>
       <c r="G7" s="1">
-        <v>17.004077</v>
+        <v>17.004076999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>921.379000</v>
+        <v>921.37900000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.996000</v>
+        <v>-163.99600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>61225.171456</v>
+        <v>61225.171455999996</v>
       </c>
       <c r="L7" s="1">
         <v>17.006992</v>
       </c>
       <c r="M7" s="1">
-        <v>942.914000</v>
+        <v>942.91399999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.759000</v>
+        <v>-117.759</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>61235.375187</v>
+        <v>61235.375186999998</v>
       </c>
       <c r="Q7" s="1">
         <v>17.009826</v>
       </c>
       <c r="R7" s="1">
-        <v>949.328000</v>
+        <v>949.32799999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.920000</v>
+        <v>-102.92</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>61245.592773</v>
+        <v>61245.592772999997</v>
       </c>
       <c r="V7" s="1">
-        <v>17.012665</v>
+        <v>17.012664999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>955.863000</v>
+        <v>955.86300000000006</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.518400</v>
+        <v>-89.5184</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>61256.093544</v>
+        <v>61256.093544000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.015582</v>
+        <v>17.015581999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.116000</v>
+        <v>963.11599999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.284600</v>
+        <v>-80.284599999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>61266.617193</v>
+        <v>61266.617192999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.018505</v>
+        <v>17.018505000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.014000</v>
+        <v>968.01400000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.144300</v>
+        <v>-80.144300000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>61277.040588</v>
+        <v>61277.040588000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.021400</v>
+        <v>17.0214</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.125000</v>
+        <v>976.125</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.977400</v>
+        <v>-87.977400000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>61287.696672</v>
+        <v>61287.696671999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>17.024360</v>
+        <v>17.024360000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.397000</v>
+        <v>985.39700000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.121000</v>
+        <v>-103.121</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>61298.487137</v>
+        <v>61298.487136999996</v>
       </c>
       <c r="AU7" s="1">
         <v>17.027358</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.917000</v>
+        <v>996.91700000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.895000</v>
+        <v>-124.895</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>61309.554833</v>
+        <v>61309.554833000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.030432</v>
+        <v>17.030432000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.824000</v>
+        <v>-143.82400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>61320.546219</v>
+        <v>61320.546219000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.033485</v>
+        <v>17.033484999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.590000</v>
+        <v>1052.5899999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.269000</v>
+        <v>-229.26900000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>61331.351038</v>
+        <v>61331.351038000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>17.036486</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.583000</v>
+        <v>-365.58300000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>61342.766452</v>
+        <v>61342.766452000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>17.039657</v>
+        <v>17.039656999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.800000</v>
+        <v>1266.8</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-574.872000</v>
+        <v>-574.87199999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>61354.445781</v>
+        <v>61354.445781000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.042902</v>
+        <v>17.042902000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1415.330000</v>
+        <v>1415.33</v>
       </c>
       <c r="BV7" s="1">
-        <v>-797.391000</v>
+        <v>-797.39099999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>61365.580935</v>
+        <v>61365.580934999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.045995</v>
+        <v>17.045995000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1578.500000</v>
+        <v>1578.5</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1028.970000</v>
+        <v>-1028.97</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>61377.437799</v>
+        <v>61377.437798999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.049288</v>
+        <v>17.049288000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1987.280000</v>
+        <v>1987.28</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1569.510000</v>
+        <v>-1569.51</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>61204.976348</v>
+        <v>61204.976347999997</v>
       </c>
       <c r="B8" s="1">
         <v>17.001382</v>
       </c>
       <c r="C8" s="1">
-        <v>904.918000</v>
+        <v>904.91800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-193.415000</v>
+        <v>-193.41499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>61215.368063</v>
+        <v>61215.368063000002</v>
       </c>
       <c r="G8" s="1">
-        <v>17.004269</v>
+        <v>17.004269000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>921.820000</v>
+        <v>921.82</v>
       </c>
       <c r="I8" s="1">
-        <v>-164.231000</v>
+        <v>-164.23099999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>61225.519680</v>
+        <v>61225.519679999998</v>
       </c>
       <c r="L8" s="1">
-        <v>17.007089</v>
+        <v>17.007089000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>942.841000</v>
+        <v>942.84100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.732000</v>
+        <v>-117.732</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>61235.723346</v>
+        <v>61235.723345999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>17.009923</v>
+        <v>17.009923000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>949.359000</v>
+        <v>949.35900000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.903000</v>
+        <v>-102.90300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>61245.933494</v>
+        <v>61245.933493999997</v>
       </c>
       <c r="V8" s="1">
-        <v>17.012759</v>
+        <v>17.012758999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>955.906000</v>
+        <v>955.90599999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.591100</v>
+        <v>-89.591099999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>61256.442728</v>
+        <v>61256.442728000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>17.015679</v>
+        <v>17.015678999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.073000</v>
+        <v>963.07299999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.256900</v>
+        <v>-80.256900000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>61267.271384</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.018686</v>
+        <v>17.018685999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.139000</v>
+        <v>968.13900000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.141200</v>
+        <v>-80.141199999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>61277.427994</v>
+        <v>61277.427993999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>17.021508</v>
+        <v>17.021508000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.123000</v>
+        <v>976.12300000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.980500</v>
+        <v>-87.980500000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>61288.134110</v>
+        <v>61288.134109999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>17.024482</v>
+        <v>17.024481999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.402000</v>
+        <v>985.40200000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.126000</v>
+        <v>-103.126</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>61298.849182</v>
+        <v>61298.849181999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.027458</v>
+        <v>17.027457999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.904000</v>
+        <v>996.904</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.893000</v>
+        <v>-124.893</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>61309.911953</v>
+        <v>61309.911953000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>17.030531</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.829000</v>
+        <v>-143.82900000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>61320.907762</v>
+        <v>61320.907762000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.033585</v>
+        <v>17.033584999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.650000</v>
+        <v>1052.6500000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.269000</v>
+        <v>-229.26900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>61331.773652</v>
+        <v>61331.773652000003</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.036604</v>
+        <v>17.036604000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.565000</v>
+        <v>-365.565</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>61343.163748</v>
+        <v>61343.163747999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>17.039768</v>
+        <v>17.039767999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-574.867000</v>
+        <v>-574.86699999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>61354.836133</v>
+        <v>61354.836132999997</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.043010</v>
+        <v>17.043009999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1415.340000</v>
+        <v>1415.34</v>
       </c>
       <c r="BV8" s="1">
-        <v>-797.436000</v>
+        <v>-797.43600000000004</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>61365.999558</v>
+        <v>61365.999558000003</v>
       </c>
       <c r="BY8" s="1">
         <v>17.046111</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1578.420000</v>
+        <v>1578.42</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>61377.954134</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.049432</v>
+        <v>17.049431999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1986.710000</v>
+        <v>1986.71</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1568.360000</v>
+        <v>-1568.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>61205.659842</v>
+        <v>61205.659842000001</v>
       </c>
       <c r="B9" s="1">
-        <v>17.001572</v>
+        <v>17.001571999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>905.246000</v>
+        <v>905.24599999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-193.329000</v>
+        <v>-193.32900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>61215.715230</v>
+        <v>61215.715230000002</v>
       </c>
       <c r="G9" s="1">
         <v>17.004365</v>
       </c>
       <c r="H9" s="1">
-        <v>921.418000</v>
+        <v>921.41800000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.850000</v>
+        <v>-163.85</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>61225.865855</v>
+        <v>61225.865854999996</v>
       </c>
       <c r="L9" s="1">
         <v>17.007185</v>
       </c>
       <c r="M9" s="1">
-        <v>942.792000</v>
+        <v>942.79200000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.884000</v>
+        <v>-117.884</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>61236.072035</v>
+        <v>61236.072034999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>17.010020</v>
+        <v>17.010020000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>949.377000</v>
+        <v>949.37699999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.897000</v>
+        <v>-102.89700000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>61246.589837</v>
       </c>
       <c r="V9" s="1">
-        <v>17.012942</v>
+        <v>17.012941999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>955.792000</v>
+        <v>955.79200000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.432100</v>
+        <v>-89.432100000000005</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>61257.097942</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.015861</v>
+        <v>17.015861000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.102000</v>
+        <v>963.10199999999998</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.293400</v>
+        <v>-80.293400000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>61267.648840</v>
+        <v>61267.648840000002</v>
       </c>
       <c r="AF9" s="1">
         <v>17.018791</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.043000</v>
+        <v>968.04300000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.070400</v>
+        <v>-80.070400000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>61277.777643</v>
+        <v>61277.777643000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.021605</v>
+        <v>17.021605000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.119000</v>
+        <v>976.11900000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.970500</v>
+        <v>-87.970500000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>61288.494205</v>
+        <v>61288.494205000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.024582</v>
+        <v>17.024581999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.396000</v>
+        <v>985.39599999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.119000</v>
+        <v>-103.119</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>61299.214766</v>
+        <v>61299.214765999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.027560</v>
+        <v>17.027560000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.899000</v>
+        <v>996.899</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.898000</v>
+        <v>-124.898</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>61310.330608</v>
+        <v>61310.330607999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.030647</v>
+        <v>17.030646999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.837000</v>
+        <v>-143.83699999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>61321.331841</v>
+        <v>61321.331840999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.033703</v>
+        <v>17.033702999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.250000</v>
+        <v>-229.25</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>61332.100484</v>
+        <v>61332.100484000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.036695</v>
+        <v>17.036695000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.440000</v>
+        <v>1133.44</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.586000</v>
+        <v>-365.58600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>61343.561044</v>
+        <v>61343.561044000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>17.039878</v>
+        <v>17.039878000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-574.854000</v>
+        <v>-574.85400000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>61355.254228</v>
+        <v>61355.254227999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.043126</v>
+        <v>17.043126000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1415.310000</v>
+        <v>1415.31</v>
       </c>
       <c r="BV9" s="1">
-        <v>-797.405000</v>
+        <v>-797.40499999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>61366.446949</v>
+        <v>61366.446948999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>17.046235</v>
+        <v>17.046234999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1578.500000</v>
+        <v>1578.5</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1028.990000</v>
+        <v>-1028.99</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>61378.471958</v>
+        <v>61378.471958000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.049576</v>
+        <v>17.049575999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1985.620000</v>
+        <v>1985.62</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1569.100000</v>
+        <v>-1569.1</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>61206.003065</v>
+        <v>61206.003064999997</v>
       </c>
       <c r="B10" s="1">
-        <v>17.001668</v>
+        <v>17.001667999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>905.100000</v>
+        <v>905.1</v>
       </c>
       <c r="D10" s="1">
-        <v>-193.166000</v>
+        <v>-193.166</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>61216.059980</v>
+        <v>61216.059979999998</v>
       </c>
       <c r="G10" s="1">
-        <v>17.004461</v>
+        <v>17.004460999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>921.626000</v>
+        <v>921.62599999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.788000</v>
+        <v>-163.78800000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>61226.529038</v>
+        <v>61226.529038000001</v>
       </c>
       <c r="L10" s="1">
-        <v>17.007369</v>
+        <v>17.007369000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>942.910000</v>
+        <v>942.91</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.927000</v>
+        <v>-117.92700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>61236.734193</v>
+        <v>61236.734192999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.010204</v>
+        <v>17.010204000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>949.394000</v>
+        <v>949.39400000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.937000</v>
+        <v>-102.937</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>61246.967187</v>
+        <v>61246.967187000002</v>
       </c>
       <c r="V10" s="1">
-        <v>17.013046</v>
+        <v>17.013045999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.820000</v>
+        <v>955.82</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.515800</v>
+        <v>-89.515799999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>61257.491765</v>
+        <v>61257.491764999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.015970</v>
+        <v>17.015969999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.215000</v>
+        <v>963.21500000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.282600</v>
+        <v>-80.282600000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>61267.988601</v>
+        <v>61267.988600999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.018886</v>
+        <v>17.018885999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.186000</v>
+        <v>968.18600000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.023800</v>
+        <v>-80.023799999999994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>61278.124843</v>
+        <v>61278.124842999998</v>
       </c>
       <c r="AK10" s="1">
         <v>17.021701</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.132000</v>
+        <v>976.13199999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.991300</v>
+        <v>-87.991299999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>61288.855292</v>
       </c>
       <c r="AP10" s="1">
-        <v>17.024682</v>
+        <v>17.024681999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.387000</v>
+        <v>985.38699999999994</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>61299.653198</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.027681</v>
+        <v>17.027681000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.897000</v>
+        <v>996.89700000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.906000</v>
+        <v>-124.90600000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>61310.628175</v>
+        <v>61310.628174999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.030730</v>
+        <v>17.030729999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.808000</v>
+        <v>-143.80799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>61321.628945</v>
+        <v>61321.628944999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.033786</v>
+        <v>17.033785999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.610000</v>
+        <v>1052.6099999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.242000</v>
+        <v>-229.24199999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>61332.483891</v>
+        <v>61332.483891000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.036801</v>
+        <v>17.036801000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.571000</v>
+        <v>-365.57100000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>61343.981155</v>
+        <v>61343.981155000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>17.039995</v>
+        <v>17.039995000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.800000</v>
+        <v>1266.8</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-574.902000</v>
+        <v>-574.90200000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>61355.667923</v>
+        <v>61355.667923000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.043241</v>
+        <v>17.043240999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1415.370000</v>
+        <v>1415.37</v>
       </c>
       <c r="BV10" s="1">
-        <v>-797.318000</v>
+        <v>-797.31799999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>61366.872023</v>
+        <v>61366.872023000004</v>
       </c>
       <c r="BY10" s="1">
         <v>17.046353</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1578.310000</v>
+        <v>1578.31</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>61378.992756</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.049720</v>
+        <v>17.049720000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1985.820000</v>
+        <v>1985.82</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1568.150000</v>
+        <v>-1568.15</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>61206.345305</v>
+        <v>61206.345305000003</v>
       </c>
       <c r="B11" s="1">
         <v>17.001763</v>
       </c>
       <c r="C11" s="1">
-        <v>905.058000</v>
+        <v>905.05799999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-193.289000</v>
+        <v>-193.28899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>61216.719131</v>
+        <v>61216.719130999998</v>
       </c>
       <c r="G11" s="1">
-        <v>17.004644</v>
+        <v>17.004643999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>921.240000</v>
+        <v>921.24</v>
       </c>
       <c r="I11" s="1">
-        <v>-164.023000</v>
+        <v>-164.023</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>61226.900511</v>
@@ -2824,285 +3240,285 @@
         <v>17.007472</v>
       </c>
       <c r="M11" s="1">
-        <v>942.838000</v>
+        <v>942.83799999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.844000</v>
+        <v>-117.84399999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>61237.116608</v>
+        <v>61237.116607999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.010310</v>
+        <v>17.01031</v>
       </c>
       <c r="R11" s="1">
-        <v>949.380000</v>
+        <v>949.38</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.952000</v>
+        <v>-102.952</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>61247.310389</v>
+        <v>61247.310388999998</v>
       </c>
       <c r="V11" s="1">
-        <v>17.013142</v>
+        <v>17.013141999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>955.730000</v>
+        <v>955.73</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.569500</v>
+        <v>-89.569500000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>61257.839994</v>
+        <v>61257.839994000002</v>
       </c>
       <c r="AA11" s="1">
         <v>17.016067</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.044000</v>
+        <v>963.04399999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.303500</v>
+        <v>-80.3035</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>61268.332366</v>
+        <v>61268.332366000002</v>
       </c>
       <c r="AF11" s="1">
         <v>17.018981</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.142000</v>
+        <v>968.14200000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.006500</v>
+        <v>-80.006500000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>61278.549914</v>
+        <v>61278.549914000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.021819</v>
+        <v>17.021819000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.108000</v>
+        <v>976.10799999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.966200</v>
+        <v>-87.966200000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>61289.274413</v>
+        <v>61289.274412999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.024798</v>
+        <v>17.024798000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.390000</v>
+        <v>985.39</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>61299.944845</v>
+        <v>61299.944844999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>17.027762</v>
+        <v>17.027761999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.896000</v>
+        <v>996.89599999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.895000</v>
+        <v>-124.895</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>61310.987776</v>
+        <v>61310.987776000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>17.030830</v>
+        <v>17.030830000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.834000</v>
+        <v>-143.834</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>61321.991025</v>
+        <v>61321.991025000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.033886</v>
+        <v>17.033885999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.650000</v>
+        <v>1052.6500000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.241000</v>
+        <v>-229.24100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>61332.872259</v>
+        <v>61332.872259000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.036909</v>
+        <v>17.036909000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.470000</v>
+        <v>1133.47</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.570000</v>
+        <v>-365.57</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>61344.809474</v>
+        <v>61344.809474000002</v>
       </c>
       <c r="BO11" s="1">
         <v>17.040225</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.840000</v>
+        <v>1266.8399999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-574.868000</v>
+        <v>-574.86800000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>61356.493234</v>
+        <v>61356.493234000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.043470</v>
+        <v>17.043469999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1415.350000</v>
+        <v>1415.35</v>
       </c>
       <c r="BV11" s="1">
-        <v>-797.378000</v>
+        <v>-797.37800000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>61367.293622</v>
+        <v>61367.293621999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.046470</v>
+        <v>17.046469999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1578.450000</v>
+        <v>1578.45</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1028.930000</v>
+        <v>-1028.93</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>61379.554265</v>
+        <v>61379.554264999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>17.049876</v>
+        <v>17.049876000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1986.830000</v>
+        <v>1986.83</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1568.200000</v>
+        <v>-1568.2</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>61207.017880</v>
+        <v>61207.017879999999</v>
       </c>
       <c r="B12" s="1">
         <v>17.001949</v>
       </c>
       <c r="C12" s="1">
-        <v>905.092000</v>
+        <v>905.09199999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-193.369000</v>
+        <v>-193.369</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>61217.095626</v>
+        <v>61217.095626000002</v>
       </c>
       <c r="G12" s="1">
         <v>17.004749</v>
       </c>
       <c r="H12" s="1">
-        <v>921.250000</v>
+        <v>921.25</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.738000</v>
+        <v>-163.738</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>61227.250189</v>
+        <v>61227.250188999998</v>
       </c>
       <c r="L12" s="1">
         <v>17.007569</v>
       </c>
       <c r="M12" s="1">
-        <v>942.690000</v>
+        <v>942.69</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.878000</v>
+        <v>-117.878</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>61237.468272</v>
+        <v>61237.468271999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>17.010408</v>
+        <v>17.010408000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>949.330000</v>
+        <v>949.33</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.924000</v>
+        <v>-102.92400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>61247.653154</v>
@@ -3111,148 +3527,148 @@
         <v>17.013237</v>
       </c>
       <c r="W12" s="1">
-        <v>955.900000</v>
+        <v>955.9</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.570400</v>
+        <v>-89.570400000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>61258.266021</v>
+        <v>61258.266021000003</v>
       </c>
       <c r="AA12" s="1">
         <v>17.016185</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.983000</v>
+        <v>962.98299999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.354100</v>
+        <v>-80.354100000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>61268.756444</v>
+        <v>61268.756443999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.019099</v>
+        <v>17.019099000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.140000</v>
+        <v>968.14</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.985100</v>
+        <v>-79.985100000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>61278.829691</v>
+        <v>61278.829690999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>17.021897</v>
+        <v>17.021896999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.126000</v>
+        <v>976.12599999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.990800</v>
+        <v>-87.990799999999993</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>61289.578459</v>
+        <v>61289.578458999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.024883</v>
+        <v>17.024882999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.405000</v>
+        <v>985.40499999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.112000</v>
+        <v>-103.11199999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>61300.308414</v>
+        <v>61300.308413999999</v>
       </c>
       <c r="AU12" s="1">
         <v>17.027863</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.899000</v>
+        <v>996.899</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.891000</v>
+        <v>-124.89100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>61311.347376</v>
+        <v>61311.347375999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>17.030930</v>
+        <v>17.030930000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.802000</v>
+        <v>-143.80199999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>61322.350624</v>
+        <v>61322.350623999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.033986</v>
+        <v>17.033985999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.238000</v>
+        <v>-229.238</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>61333.622209</v>
+        <v>61333.622209000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.037117</v>
+        <v>17.037116999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.470000</v>
+        <v>1133.47</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.578000</v>
+        <v>-365.57799999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>61345.220163</v>
+        <v>61345.220162999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.040339</v>
+        <v>17.040338999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.800000</v>
+        <v>1266.8</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-574.865000</v>
+        <v>-574.86500000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>61356.907432</v>
@@ -3261,1074 +3677,1074 @@
         <v>17.043585</v>
       </c>
       <c r="BU12" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="BV12" s="1">
-        <v>-797.383000</v>
+        <v>-797.38300000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>61367.740052</v>
+        <v>61367.740052000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.046594</v>
+        <v>17.046593999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1578.320000</v>
+        <v>1578.32</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1029.080000</v>
+        <v>-1029.08</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>61380.382547</v>
+        <v>61380.382547000001</v>
       </c>
       <c r="CD12" s="1">
         <v>17.050106</v>
       </c>
       <c r="CE12" s="1">
-        <v>1985.690000</v>
+        <v>1985.69</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1569.250000</v>
+        <v>-1569.25</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>61207.367064</v>
+        <v>61207.367063999998</v>
       </c>
       <c r="B13" s="1">
         <v>17.002046</v>
       </c>
       <c r="C13" s="1">
-        <v>905.041000</v>
+        <v>905.04100000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-193.305000</v>
+        <v>-193.30500000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>61217.439352</v>
+        <v>61217.439352000001</v>
       </c>
       <c r="G13" s="1">
-        <v>17.004844</v>
+        <v>17.004843999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>921.648000</v>
+        <v>921.64800000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.963000</v>
+        <v>-163.96299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>61227.594943</v>
+        <v>61227.594942999996</v>
       </c>
       <c r="L13" s="1">
-        <v>17.007665</v>
+        <v>17.007664999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>943.005000</v>
+        <v>943.005</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.845000</v>
+        <v>-117.845</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>61237.816959</v>
+        <v>61237.816959000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>17.010505</v>
+        <v>17.010504999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>949.369000</v>
+        <v>949.36900000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.904000</v>
+        <v>-102.904</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>61248.078690</v>
+        <v>61248.078690000002</v>
       </c>
       <c r="V13" s="1">
-        <v>17.013355</v>
+        <v>17.013355000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.844000</v>
+        <v>955.84400000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.496200</v>
+        <v>-89.496200000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>61258.545269</v>
+        <v>61258.545269000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.016263</v>
+        <v>17.016262999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.076000</v>
+        <v>963.07600000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.330800</v>
+        <v>-80.330799999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>61269.021163</v>
+        <v>61269.021162999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.019173</v>
+        <v>17.019172999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.094000</v>
+        <v>968.09400000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.013300</v>
+        <v>-80.013300000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>61279.178382</v>
+        <v>61279.178381999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>17.021994</v>
+        <v>17.021993999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.134000</v>
+        <v>976.13400000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.983600</v>
+        <v>-87.983599999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>61289.935937</v>
+        <v>61289.935937000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.024982</v>
+        <v>17.024982000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.396000</v>
+        <v>985.39599999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.138000</v>
+        <v>-103.13800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>61300.673004</v>
+        <v>61300.673003999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.027965</v>
+        <v>17.027964999999998</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.890000</v>
+        <v>996.89</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.907000</v>
+        <v>-124.907</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>61312.069054</v>
       </c>
       <c r="AZ13" s="1">
-        <v>17.031130</v>
+        <v>17.031130000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.833000</v>
+        <v>-143.833</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>61323.076767</v>
+        <v>61323.076766999999</v>
       </c>
       <c r="BE13" s="1">
         <v>17.034188</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.268000</v>
+        <v>-229.268</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>61334.022480</v>
+        <v>61334.02248</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.037228</v>
+        <v>17.037227999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.470000</v>
+        <v>1133.47</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.547000</v>
+        <v>-365.54700000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>61345.615506</v>
+        <v>61345.615506000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>17.040449</v>
+        <v>17.040448999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.820000</v>
+        <v>1266.82</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-574.871000</v>
+        <v>-574.87099999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>61357.658337</v>
+        <v>61357.658337000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.043794</v>
+        <v>17.043793999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1415.470000</v>
+        <v>1415.47</v>
       </c>
       <c r="BV13" s="1">
-        <v>-797.331000</v>
+        <v>-797.33100000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>61368.483560</v>
+        <v>61368.483560000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.046801</v>
+        <v>17.046800999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1578.420000</v>
+        <v>1578.42</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>61380.624634</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.050174</v>
+        <v>17.050173999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1986.930000</v>
+        <v>1986.93</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1570.070000</v>
+        <v>-1570.07</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>61207.717736</v>
+        <v>61207.717735999999</v>
       </c>
       <c r="B14" s="1">
-        <v>17.002144</v>
+        <v>17.002144000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>904.927000</v>
+        <v>904.92700000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-193.200000</v>
+        <v>-193.2</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>61217.783545</v>
+        <v>61217.783544999998</v>
       </c>
       <c r="G14" s="1">
-        <v>17.004940</v>
+        <v>17.004940000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>921.301000</v>
+        <v>921.30100000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.923000</v>
+        <v>-163.923</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>61228.014525</v>
+        <v>61228.014524999999</v>
       </c>
       <c r="L14" s="1">
-        <v>17.007782</v>
+        <v>17.007781999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>943.004000</v>
+        <v>943.00400000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.916000</v>
+        <v>-117.916</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>61238.224176</v>
+        <v>61238.224176000003</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.010618</v>
+        <v>17.010618000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>949.364000</v>
+        <v>949.36400000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.901000</v>
+        <v>-102.901</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>61248.367896</v>
+        <v>61248.367896000003</v>
       </c>
       <c r="V14" s="1">
-        <v>17.013436</v>
+        <v>17.013435999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>955.822000</v>
+        <v>955.822</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.457200</v>
+        <v>-89.4572</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>61258.896468</v>
+        <v>61258.896467999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.016360</v>
+        <v>17.016359999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.016000</v>
+        <v>963.01599999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.287300</v>
+        <v>-80.287300000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>61269.366982</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.019269</v>
+        <v>17.019269000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.096000</v>
+        <v>968.096</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.036100</v>
+        <v>-80.036100000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>61279.527033</v>
+        <v>61279.527032999998</v>
       </c>
       <c r="AK14" s="1">
         <v>17.022091</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.138000</v>
+        <v>976.13800000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.006300</v>
+        <v>-88.006299999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>61290.299146</v>
+        <v>61290.299145999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.025083</v>
+        <v>17.025082999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.392000</v>
+        <v>985.39200000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.117000</v>
+        <v>-103.117</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>61301.409036</v>
+        <v>61301.409035999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.028169</v>
+        <v>17.028168999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.888000</v>
+        <v>996.88800000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.896000</v>
+        <v>-124.896</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>61312.444561</v>
+        <v>61312.444560999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>17.031235</v>
+        <v>17.031234999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.809000</v>
+        <v>-143.809</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>61323.438847</v>
+        <v>61323.438846999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.034289</v>
+        <v>17.034289000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.630000</v>
+        <v>1052.6300000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.258000</v>
+        <v>-229.25800000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>61334.397952</v>
+        <v>61334.397951999999</v>
       </c>
       <c r="BJ14" s="1">
         <v>17.037333</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.568000</v>
+        <v>-365.56799999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>61346.347082</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.040652</v>
+        <v>17.040652000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-574.858000</v>
+        <v>-574.85799999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>61357.769473</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.043825</v>
+        <v>17.043824999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1415.400000</v>
+        <v>1415.4</v>
       </c>
       <c r="BV14" s="1">
-        <v>-797.344000</v>
+        <v>-797.34400000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>61368.606531</v>
+        <v>61368.606530999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.046835</v>
+        <v>17.046835000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1578.390000</v>
+        <v>1578.39</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1028.950000</v>
+        <v>-1028.95</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>61381.160274</v>
+        <v>61381.160274000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.050322</v>
+        <v>17.050322000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1986.300000</v>
+        <v>1986.3</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1567.990000</v>
+        <v>-1567.99</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>61208.172607</v>
       </c>
       <c r="B15" s="1">
-        <v>17.002270</v>
+        <v>17.002269999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>904.913000</v>
+        <v>904.91300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-193.385000</v>
+        <v>-193.38499999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>61218.207625</v>
+        <v>61218.207625000003</v>
       </c>
       <c r="G15" s="1">
-        <v>17.005058</v>
+        <v>17.005057999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>921.305000</v>
+        <v>921.30499999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.962000</v>
+        <v>-163.96199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>61228.287324</v>
+        <v>61228.287323999997</v>
       </c>
       <c r="L15" s="1">
-        <v>17.007858</v>
+        <v>17.007857999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>943.069000</v>
+        <v>943.06899999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.949000</v>
+        <v>-117.949</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>61238.522285</v>
+        <v>61238.522284999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>17.010701</v>
+        <v>17.010701000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>949.404000</v>
+        <v>949.404</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.917000</v>
+        <v>-102.917</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>61248.709613</v>
+        <v>61248.709612999999</v>
       </c>
       <c r="V15" s="1">
-        <v>17.013530</v>
+        <v>17.013529999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>955.921000</v>
+        <v>955.92100000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.590900</v>
+        <v>-89.590900000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>61259.243667</v>
+        <v>61259.243667000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.016457</v>
+        <v>17.016456999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.122000</v>
+        <v>963.12199999999996</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.369000</v>
+        <v>-80.369</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>61269.710215</v>
+        <v>61269.710214999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.019364</v>
+        <v>17.019363999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.159000</v>
+        <v>968.15899999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.013500</v>
+        <v>-80.013499999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>61280.224905</v>
+        <v>61280.224905000003</v>
       </c>
       <c r="AK15" s="1">
         <v>17.022285</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.148000</v>
+        <v>976.14800000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.980100</v>
+        <v>-87.980099999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>61291.014873</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.025282</v>
+        <v>17.025282000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.405000</v>
+        <v>985.40499999999997</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.108000</v>
+        <v>-103.108</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>61301.789995</v>
+        <v>61301.789994999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.028275</v>
+        <v>17.028275000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.899000</v>
+        <v>996.899</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.890000</v>
+        <v>-124.89</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>61312.830935</v>
+        <v>61312.830934999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.031342</v>
+        <v>17.031341999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.813000</v>
+        <v>-143.81299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>61323.796995</v>
+        <v>61323.796994999997</v>
       </c>
       <c r="BE15" s="1">
         <v>17.034388</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.650000</v>
+        <v>1052.6500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.251000</v>
+        <v>-229.251</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>61335.084911</v>
+        <v>61335.084910999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.037524</v>
+        <v>17.037524000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.582000</v>
+        <v>-365.58199999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>61346.457680</v>
+        <v>61346.45768</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.040683</v>
+        <v>17.040683000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.810000</v>
+        <v>1266.81</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-574.860000</v>
+        <v>-574.86</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>61358.210384</v>
+        <v>61358.210383999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.043947</v>
+        <v>17.043946999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1415.400000</v>
+        <v>1415.4</v>
       </c>
       <c r="BV15" s="1">
-        <v>-797.295000</v>
+        <v>-797.29499999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>61369.031603</v>
+        <v>61369.031603000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.046953</v>
+        <v>17.046952999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1578.340000</v>
+        <v>1578.34</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1029.210000</v>
+        <v>-1029.21</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>61381.700417</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.050472</v>
+        <v>17.050471999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1986.010000</v>
+        <v>1986.01</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1569.800000</v>
+        <v>-1569.8</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>61208.416102</v>
+        <v>61208.416102000003</v>
       </c>
       <c r="B16" s="1">
-        <v>17.002338</v>
+        <v>17.002338000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>905.108000</v>
+        <v>905.10799999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-193.309000</v>
+        <v>-193.309</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>61218.473482</v>
+        <v>61218.473482000001</v>
       </c>
       <c r="G16" s="1">
         <v>17.005132</v>
       </c>
       <c r="H16" s="1">
-        <v>921.454000</v>
+        <v>921.45399999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.928000</v>
+        <v>-163.928</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>61228.632539</v>
+        <v>61228.632538999998</v>
       </c>
       <c r="L16" s="1">
-        <v>17.007953</v>
+        <v>17.007953000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>942.911000</v>
+        <v>942.91099999999994</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.956000</v>
+        <v>-117.956</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>61238.874430</v>
+        <v>61238.874430000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.010798</v>
+        <v>17.010798000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>949.386000</v>
+        <v>949.38599999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.926000</v>
+        <v>-102.926</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>61249.054352</v>
+        <v>61249.054351999999</v>
       </c>
       <c r="V16" s="1">
-        <v>17.013626</v>
+        <v>17.013625999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>955.984000</v>
+        <v>955.98400000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.388800</v>
+        <v>-89.388800000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>61259.939028</v>
+        <v>61259.939028000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.016650</v>
+        <v>17.016649999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.107000</v>
+        <v>963.10699999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.327500</v>
+        <v>-80.327500000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>61270.397669</v>
+        <v>61270.397668999998</v>
       </c>
       <c r="AF16" s="1">
         <v>17.019555</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.149000</v>
+        <v>968.149</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.027200</v>
+        <v>-80.027199999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>61280.571112</v>
+        <v>61280.571111999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.022381</v>
+        <v>17.022380999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.126000</v>
+        <v>976.12599999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.973700</v>
+        <v>-87.973699999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>61291.375960</v>
+        <v>61291.375959999998</v>
       </c>
       <c r="AP16" s="1">
         <v>17.025382</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.400000</v>
+        <v>985.4</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.124000</v>
+        <v>-103.124</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>61302.157499</v>
+        <v>61302.157499000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>17.028377</v>
+        <v>17.028376999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.911000</v>
+        <v>996.91099999999994</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.908000</v>
+        <v>-124.908</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>61313.514397</v>
+        <v>61313.514396999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>17.031532</v>
+        <v>17.031531999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.630000</v>
+        <v>1006.63</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.825000</v>
+        <v>-143.82499999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>61324.402109</v>
+        <v>61324.402109000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.034556</v>
+        <v>17.034555999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.245000</v>
+        <v>-229.245</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>61335.547220</v>
+        <v>61335.54722</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.037652</v>
+        <v>17.037652000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.569000</v>
+        <v>-365.56900000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>61346.856495</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.040793</v>
+        <v>17.040793000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.800000</v>
+        <v>1266.8</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-574.902000</v>
+        <v>-574.90200000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>61358.619089</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.044061</v>
+        <v>17.044060999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1415.480000</v>
+        <v>1415.48</v>
       </c>
       <c r="BV16" s="1">
-        <v>-797.303000</v>
+        <v>-797.303</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>61369.452209</v>
+        <v>61369.452209000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.047070</v>
+        <v>17.047070000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1578.450000</v>
+        <v>1578.45</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1028.970000</v>
+        <v>-1028.97</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>61382.238081</v>
+        <v>61382.238081000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.050622</v>
+        <v>17.050622000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1987.910000</v>
+        <v>1987.91</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1569.140000</v>
+        <v>-1569.14</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>61208.757349</v>
       </c>
@@ -4336,647 +4752,647 @@
         <v>17.002433</v>
       </c>
       <c r="C17" s="1">
-        <v>905.090000</v>
+        <v>905.09</v>
       </c>
       <c r="D17" s="1">
-        <v>-193.307000</v>
+        <v>-193.30699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>61218.819720</v>
+        <v>61218.81972</v>
       </c>
       <c r="G17" s="1">
-        <v>17.005228</v>
+        <v>17.005227999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>921.693000</v>
+        <v>921.69299999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.749000</v>
+        <v>-163.749</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>61228.975275</v>
+        <v>61228.975274999997</v>
       </c>
       <c r="L17" s="1">
         <v>17.008049</v>
       </c>
       <c r="M17" s="1">
-        <v>942.969000</v>
+        <v>942.96900000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.948000</v>
+        <v>-117.94799999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>61239.221629</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.010895</v>
+        <v>17.010895000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>949.353000</v>
+        <v>949.35299999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.942000</v>
+        <v>-102.94199999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>61249.740819</v>
+        <v>61249.740818999999</v>
       </c>
       <c r="V17" s="1">
         <v>17.013817</v>
       </c>
       <c r="W17" s="1">
-        <v>955.886000</v>
+        <v>955.88599999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.450000</v>
+        <v>-89.45</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>61260.289699</v>
+        <v>61260.289699000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.016747</v>
+        <v>17.016746999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.131000</v>
+        <v>963.13099999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.318800</v>
+        <v>-80.318799999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>61270.740900</v>
+        <v>61270.740899999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.019650</v>
+        <v>17.019649999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.075000</v>
+        <v>968.07500000000005</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.938400</v>
+        <v>-79.938400000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>61280.921782</v>
+        <v>61280.921781999998</v>
       </c>
       <c r="AK17" s="1">
         <v>17.022478</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.121000</v>
+        <v>976.12099999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.984200</v>
+        <v>-87.984200000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>61292.045063</v>
+        <v>61292.045062999998</v>
       </c>
       <c r="AP17" s="1">
         <v>17.025568</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.383000</v>
+        <v>985.38300000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.107000</v>
+        <v>-103.107</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>61302.835529</v>
+        <v>61302.835529000004</v>
       </c>
       <c r="AU17" s="1">
         <v>17.028565</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.917000</v>
+        <v>996.91700000000003</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.908000</v>
+        <v>-124.908</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>61313.909734</v>
+        <v>61313.909734000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.031642</v>
+        <v>17.031642000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.829000</v>
+        <v>-143.82900000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>61324.523102</v>
+        <v>61324.523101999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.034590</v>
+        <v>17.034590000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.660000</v>
+        <v>1052.6600000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.249000</v>
+        <v>-229.249</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>61335.943982</v>
+        <v>61335.943981999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.037762</v>
+        <v>17.037762000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.561000</v>
+        <v>-365.56099999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>61347.277599</v>
+        <v>61347.277599000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>17.040910</v>
+        <v>17.04091</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.810000</v>
+        <v>1266.81</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-574.883000</v>
+        <v>-574.88300000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>61359.053089</v>
+        <v>61359.053089000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.044181</v>
+        <v>17.044180999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1415.480000</v>
+        <v>1415.48</v>
       </c>
       <c r="BV17" s="1">
-        <v>-797.241000</v>
+        <v>-797.24099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>61369.898148</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.047194</v>
+        <v>17.047194000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1578.530000</v>
+        <v>1578.53</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>61382.778721</v>
+        <v>61382.778721000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.050772</v>
+        <v>17.050771999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.530000</v>
+        <v>1985.53</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1568.570000</v>
+        <v>-1568.57</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>61209.100613</v>
+        <v>61209.100613000002</v>
       </c>
       <c r="B18" s="1">
-        <v>17.002528</v>
+        <v>17.002528000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>904.969000</v>
+        <v>904.96900000000005</v>
       </c>
       <c r="D18" s="1">
-        <v>-193.342000</v>
+        <v>-193.34200000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>61219.161930</v>
+        <v>61219.161930000002</v>
       </c>
       <c r="G18" s="1">
-        <v>17.005323</v>
+        <v>17.005323000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>921.998000</v>
+        <v>921.99800000000005</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.868000</v>
+        <v>-163.86799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>61229.667690</v>
+        <v>61229.667690000002</v>
       </c>
       <c r="L18" s="1">
-        <v>17.008241</v>
+        <v>17.008241000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>942.949000</v>
+        <v>942.94899999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.913000</v>
+        <v>-117.913</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>61239.915037</v>
+        <v>61239.915036999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>17.011088</v>
+        <v>17.011088000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>949.345000</v>
+        <v>949.34500000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.878000</v>
+        <v>-102.878</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>61250.082527</v>
+        <v>61250.082526999999</v>
       </c>
       <c r="V18" s="1">
-        <v>17.013912</v>
+        <v>17.013912000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>955.871000</v>
+        <v>955.87099999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.476300</v>
+        <v>-89.476299999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>61260.636403</v>
+        <v>61260.636402999997</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.016843</v>
+        <v>17.016843000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.078000</v>
+        <v>963.07799999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.231800</v>
+        <v>-80.231800000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>61271.084131</v>
+        <v>61271.084131000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.019746</v>
+        <v>17.019746000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.131000</v>
+        <v>968.13099999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.023800</v>
+        <v>-80.023799999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>61281.577991</v>
+        <v>61281.577990999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.022661</v>
+        <v>17.022660999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.136000</v>
+        <v>976.13599999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.997500</v>
+        <v>-87.997500000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>61292.487000</v>
+        <v>61292.487000000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.025691</v>
+        <v>17.025690999999998</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.399000</v>
+        <v>985.399</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.141000</v>
+        <v>-103.14100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>61303.274490</v>
+        <v>61303.274490000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.028687</v>
+        <v>17.028687000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.920000</v>
+        <v>996.92</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.906000</v>
+        <v>-124.90600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>61314.296586</v>
+        <v>61314.296585999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.031749</v>
+        <v>17.031749000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.640000</v>
+        <v>1006.64</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.817000</v>
+        <v>-143.81700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>61324.913992</v>
+        <v>61324.913992000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.034698</v>
+        <v>17.034697999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.650000</v>
+        <v>1052.6500000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.235000</v>
+        <v>-229.23500000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>61336.320446</v>
+        <v>61336.320445999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.037867</v>
+        <v>17.037866999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.470000</v>
+        <v>1133.47</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.541000</v>
+        <v>-365.541</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>61347.708590</v>
+        <v>61347.708590000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.041030</v>
+        <v>17.041029999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-574.875000</v>
+        <v>-574.875</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>61359.476175</v>
+        <v>61359.476175000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>17.044299</v>
+        <v>17.044298999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1415.470000</v>
+        <v>1415.47</v>
       </c>
       <c r="BV18" s="1">
-        <v>-797.257000</v>
+        <v>-797.25699999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>61370.318752</v>
+        <v>61370.318751999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>17.047311</v>
+        <v>17.047311000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1578.300000</v>
+        <v>1578.3</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1029.040000</v>
+        <v>-1029.04</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>61383.321343</v>
+        <v>61383.321343000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.050923</v>
+        <v>17.050923000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1987.150000</v>
+        <v>1987.15</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1569.860000</v>
+        <v>-1569.86</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>61209.784070</v>
+        <v>61209.784070000002</v>
       </c>
       <c r="B19" s="1">
-        <v>17.002718</v>
+        <v>17.002718000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>905.042000</v>
+        <v>905.04200000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-193.377000</v>
+        <v>-193.37700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>61219.849879</v>
+        <v>61219.849879000001</v>
       </c>
       <c r="G19" s="1">
-        <v>17.005514</v>
+        <v>17.005514000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>921.171000</v>
+        <v>921.17100000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-164.004000</v>
+        <v>-164.00399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>61230.016876</v>
+        <v>61230.016876000002</v>
       </c>
       <c r="L19" s="1">
-        <v>17.008338</v>
+        <v>17.008337999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>942.955000</v>
+        <v>942.95500000000004</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.932000</v>
+        <v>-117.932</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>61240.287038</v>
+        <v>61240.287038000002</v>
       </c>
       <c r="Q19" s="1">
         <v>17.011191</v>
       </c>
       <c r="R19" s="1">
-        <v>949.338000</v>
+        <v>949.33799999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.915000</v>
+        <v>-102.91500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>61250.428736</v>
+        <v>61250.428736000002</v>
       </c>
       <c r="V19" s="1">
         <v>17.014008</v>
       </c>
       <c r="W19" s="1">
-        <v>955.734000</v>
+        <v>955.73400000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.582300</v>
+        <v>-89.582300000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>61261.297569</v>
+        <v>61261.297569000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.017027</v>
+        <v>17.017026999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.091000</v>
+        <v>963.09100000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.273900</v>
+        <v>-80.273899999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>61271.751251</v>
+        <v>61271.751251000002</v>
       </c>
       <c r="AF19" s="1">
         <v>17.019931</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.100000</v>
+        <v>968.1</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.035300</v>
+        <v>-80.035300000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>61281.968376</v>
+        <v>61281.968375999997</v>
       </c>
       <c r="AK19" s="1">
         <v>17.022769</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.124000</v>
+        <v>976.12400000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.975100</v>
+        <v>-87.975099999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>61292.850103</v>
+        <v>61292.850102999997</v>
       </c>
       <c r="AP19" s="1">
-        <v>17.025792</v>
+        <v>17.025791999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.393000</v>
+        <v>985.39300000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.130000</v>
+        <v>-103.13</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>61303.641528</v>
@@ -4985,58 +5401,58 @@
         <v>17.028789</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.908000</v>
+        <v>996.90800000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.894000</v>
+        <v>-124.89400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>61314.657179</v>
+        <v>61314.657179000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.031849</v>
+        <v>17.031849000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.809000</v>
+        <v>-143.809</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>61325.336043</v>
+        <v>61325.336043000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.034816</v>
+        <v>17.034815999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.244000</v>
+        <v>-229.244</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>61336.750477</v>
+        <v>61336.750477000001</v>
       </c>
       <c r="BJ19" s="1">
         <v>17.037986</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.578000</v>
+        <v>-365.57799999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>61348.097467</v>
@@ -5045,135 +5461,135 @@
         <v>17.041138</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-574.906000</v>
+        <v>-574.90599999999995</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>61359.891855</v>
+        <v>61359.891855000002</v>
       </c>
       <c r="BT19" s="1">
         <v>17.044414</v>
       </c>
       <c r="BU19" s="1">
-        <v>1415.490000</v>
+        <v>1415.49</v>
       </c>
       <c r="BV19" s="1">
-        <v>-797.219000</v>
+        <v>-797.21900000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>61370.743296</v>
+        <v>61370.743296000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.047429</v>
+        <v>17.047429000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1578.400000</v>
+        <v>1578.4</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1029.020000</v>
+        <v>-1029.02</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>61383.860000</v>
+        <v>61383.86</v>
       </c>
       <c r="CD19" s="1">
-        <v>17.051072</v>
+        <v>17.051072000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1986.320000</v>
+        <v>1986.32</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1568.030000</v>
+        <v>-1568.03</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>61210.129321</v>
       </c>
       <c r="B20" s="1">
-        <v>17.002814</v>
+        <v>17.002814000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>905.010000</v>
+        <v>905.01</v>
       </c>
       <c r="D20" s="1">
-        <v>-193.115000</v>
+        <v>-193.11500000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>61220.193145</v>
+        <v>61220.193144999997</v>
       </c>
       <c r="G20" s="1">
         <v>17.005609</v>
       </c>
       <c r="H20" s="1">
-        <v>921.411000</v>
+        <v>921.41099999999994</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.687000</v>
+        <v>-163.68700000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>61230.367547</v>
+        <v>61230.367547000002</v>
       </c>
       <c r="L20" s="1">
-        <v>17.008435</v>
+        <v>17.008434999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>942.939000</v>
+        <v>942.93899999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.801000</v>
+        <v>-117.801</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>61240.624813</v>
+        <v>61240.624813000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.011285</v>
+        <v>17.011285000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>949.383000</v>
+        <v>949.38300000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.933000</v>
+        <v>-102.93300000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>61251.089901</v>
+        <v>61251.089900999999</v>
       </c>
       <c r="V20" s="1">
-        <v>17.014192</v>
+        <v>17.014192000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>955.813000</v>
+        <v>955.81299999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.506600</v>
+        <v>-89.506600000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>61261.684449</v>
@@ -5182,195 +5598,195 @@
         <v>17.017135</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.204000</v>
+        <v>963.20399999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.278200</v>
+        <v>-80.278199999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>61272.122756</v>
+        <v>61272.122755999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>17.020034</v>
+        <v>17.020033999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.153000</v>
+        <v>968.15300000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.036900</v>
+        <v>-80.036900000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>61282.313591</v>
+        <v>61282.313590999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.022865</v>
+        <v>17.022864999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.132000</v>
+        <v>976.13199999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.984000</v>
+        <v>-87.983999999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>61293.209174</v>
+        <v>61293.209174000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>17.025891</v>
+        <v>17.025891000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.412000</v>
+        <v>985.41200000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.105000</v>
+        <v>-103.105</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>61304.007080</v>
+        <v>61304.007080000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.028891</v>
+        <v>17.028891000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.918000</v>
+        <v>996.91800000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.906000</v>
+        <v>-124.90600000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>61315.086254</v>
+        <v>61315.086254000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>17.031968</v>
+        <v>17.031967999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.827000</v>
+        <v>-143.827</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>61325.636652</v>
+        <v>61325.636652000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>17.034899</v>
+        <v>17.034898999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.630000</v>
+        <v>1052.6300000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.241000</v>
+        <v>-229.24100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>61337.070893</v>
+        <v>61337.070892999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>17.038075</v>
+        <v>17.038074999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.528000</v>
+        <v>-365.52800000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>61348.492802</v>
+        <v>61348.492802000001</v>
       </c>
       <c r="BO20" s="1">
         <v>17.041248</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.840000</v>
+        <v>1266.8399999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-574.879000</v>
+        <v>-574.87900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>61360.319870</v>
+        <v>61360.319869999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.044533</v>
+        <v>17.044533000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1415.500000</v>
+        <v>1415.5</v>
       </c>
       <c r="BV20" s="1">
-        <v>-797.241000</v>
+        <v>-797.24099999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>61371.190723</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.047553</v>
+        <v>17.047553000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1578.390000</v>
+        <v>1578.39</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1029.100000</v>
+        <v>-1029.0999999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>61384.399659</v>
+        <v>61384.399659000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.051222</v>
+        <v>17.051221999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1986.180000</v>
+        <v>1986.18</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1569.960000</v>
+        <v>-1569.96</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>61210.472517</v>
+        <v>61210.472517000002</v>
       </c>
       <c r="B21" s="1">
-        <v>17.002909</v>
+        <v>17.002908999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>905.053000</v>
+        <v>905.053</v>
       </c>
       <c r="D21" s="1">
-        <v>-193.342000</v>
+        <v>-193.34200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>61220.539847</v>
@@ -5379,542 +5795,542 @@
         <v>17.005706</v>
       </c>
       <c r="H21" s="1">
-        <v>920.806000</v>
+        <v>920.80600000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.084000</v>
+        <v>-164.084</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>61231.014824</v>
+        <v>61231.014823999998</v>
       </c>
       <c r="L21" s="1">
-        <v>17.008615</v>
+        <v>17.008614999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>942.978000</v>
+        <v>942.97799999999995</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.003000</v>
+        <v>-118.003</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>61241.069259</v>
+        <v>61241.069259000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>17.011408</v>
+        <v>17.011407999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>949.394000</v>
+        <v>949.39400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.956000</v>
+        <v>-102.956</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>61251.464879</v>
+        <v>61251.464878999999</v>
       </c>
       <c r="V21" s="1">
-        <v>17.014296</v>
+        <v>17.014296000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>955.794000</v>
+        <v>955.79399999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.478600</v>
+        <v>-89.4786</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>61262.030688</v>
+        <v>61262.030687999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.017231</v>
+        <v>17.017230999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.111000</v>
+        <v>963.11099999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.220600</v>
+        <v>-80.220600000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>61272.468963</v>
+        <v>61272.468962999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.020130</v>
+        <v>17.020130000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.298000</v>
+        <v>968.298</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.972800</v>
+        <v>-79.972800000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>61282.663760</v>
+        <v>61282.663760000003</v>
       </c>
       <c r="AK21" s="1">
         <v>17.022962</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.123000</v>
+        <v>976.12300000000005</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.980200</v>
+        <v>-87.980199999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>61293.632759</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.026009</v>
+        <v>17.026008999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.410000</v>
+        <v>985.41</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.118000</v>
+        <v>-103.11799999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>61304.417769</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.029005</v>
+        <v>17.029005000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.896000</v>
+        <v>996.89599999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.882000</v>
+        <v>-124.88200000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>61315.373899</v>
+        <v>61315.373898999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>17.032048</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.820000</v>
+        <v>-143.82</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>61325.998708</v>
+        <v>61325.998707999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.035000</v>
+        <v>17.035</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.620000</v>
+        <v>1052.6199999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.251000</v>
+        <v>-229.251</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>61337.457308</v>
+        <v>61337.457307999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>17.038183</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.553000</v>
+        <v>-365.553</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>61348.914161</v>
+        <v>61348.914161000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.041365</v>
+        <v>17.041364999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.800000</v>
+        <v>1266.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-574.900000</v>
+        <v>-574.9</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>61360.747919</v>
+        <v>61360.747919000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.044652</v>
+        <v>17.044651999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1415.550000</v>
+        <v>1415.55</v>
       </c>
       <c r="BV21" s="1">
-        <v>-797.142000</v>
+        <v>-797.14200000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>61371.626176</v>
+        <v>61371.626175999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.047674</v>
+        <v>17.047674000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1578.300000</v>
+        <v>1578.3</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1029.000000</v>
+        <v>-1029</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>61384.939293</v>
+        <v>61384.939293000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.051372</v>
+        <v>17.051372000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1987.890000</v>
+        <v>1987.89</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1568.780000</v>
+        <v>-1568.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>61211.114836</v>
+        <v>61211.114836000001</v>
       </c>
       <c r="B22" s="1">
-        <v>17.003087</v>
+        <v>17.003087000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>905.009000</v>
+        <v>905.00900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.256000</v>
+        <v>-193.256</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>61221.200486</v>
+        <v>61221.200486000002</v>
       </c>
       <c r="G22" s="1">
         <v>17.005889</v>
       </c>
       <c r="H22" s="1">
-        <v>921.024000</v>
+        <v>921.024</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.849000</v>
+        <v>-163.84899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>61231.396744</v>
+        <v>61231.396743999998</v>
       </c>
       <c r="L22" s="1">
-        <v>17.008721</v>
+        <v>17.008721000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>942.857000</v>
+        <v>942.85699999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.780000</v>
+        <v>-117.78</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>61241.330654</v>
+        <v>61241.330653999998</v>
       </c>
       <c r="Q22" s="1">
         <v>17.011481</v>
       </c>
       <c r="R22" s="1">
-        <v>949.463000</v>
+        <v>949.46299999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.972000</v>
+        <v>-102.97199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>61251.813101</v>
       </c>
       <c r="V22" s="1">
-        <v>17.014393</v>
+        <v>17.014392999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>955.846000</v>
+        <v>955.846</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.513700</v>
+        <v>-89.5137</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>61262.379839</v>
+        <v>61262.379839000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.017328</v>
+        <v>17.017327999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.187000</v>
+        <v>963.18700000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.267900</v>
+        <v>-80.267899999999997</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>61272.813185</v>
+        <v>61272.813184999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.020226</v>
+        <v>17.020226000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.099000</v>
+        <v>968.09900000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.973500</v>
+        <v>-79.973500000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>61283.091781</v>
+        <v>61283.091781000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.023081</v>
+        <v>17.023081000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.115000</v>
+        <v>976.11500000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.990500</v>
+        <v>-87.990499999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>61293.928375</v>
+        <v>61293.928375000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>17.026091</v>
+        <v>17.026091000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.379000</v>
+        <v>985.37900000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.118000</v>
+        <v>-103.11799999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>61304.736199</v>
+        <v>61304.736198999999</v>
       </c>
       <c r="AU22" s="1">
         <v>17.029093</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.907000</v>
+        <v>996.90700000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.886000</v>
+        <v>-124.886</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>61315.733993</v>
+        <v>61315.733993000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>17.032148</v>
+        <v>17.032147999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.819000</v>
+        <v>-143.81899999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>61326.360320</v>
+        <v>61326.36032</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.035100</v>
+        <v>17.0351</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.650000</v>
+        <v>1052.6500000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.241000</v>
+        <v>-229.24100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>61337.845643</v>
+        <v>61337.845643000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.038290</v>
+        <v>17.03829</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.587000</v>
+        <v>-365.58699999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>61349.730618</v>
+        <v>61349.730618000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.041592</v>
+        <v>17.041592000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.790000</v>
+        <v>1266.79</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-574.901000</v>
+        <v>-574.90099999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>61361.162083</v>
+        <v>61361.162083000003</v>
       </c>
       <c r="BT22" s="1">
         <v>17.044767</v>
       </c>
       <c r="BU22" s="1">
-        <v>1415.570000</v>
+        <v>1415.57</v>
       </c>
       <c r="BV22" s="1">
-        <v>-797.182000</v>
+        <v>-797.18200000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>61372.042329</v>
+        <v>61372.042329000004</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.047790</v>
+        <v>17.047789999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1028.940000</v>
+        <v>-1028.94</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>61385.474972</v>
+        <v>61385.474972000004</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.051521</v>
+        <v>17.051521000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1985.300000</v>
+        <v>1985.3</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1569.130000</v>
+        <v>-1569.13</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>61211.495762</v>
+        <v>61211.495761999999</v>
       </c>
       <c r="B23" s="1">
         <v>17.003193</v>
       </c>
       <c r="C23" s="1">
-        <v>905.076000</v>
+        <v>905.07600000000002</v>
       </c>
       <c r="D23" s="1">
-        <v>-193.357000</v>
+        <v>-193.357</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>61221.574501</v>
+        <v>61221.574501000003</v>
       </c>
       <c r="G23" s="1">
         <v>17.005993</v>
       </c>
       <c r="H23" s="1">
-        <v>921.287000</v>
+        <v>921.28700000000003</v>
       </c>
       <c r="I23" s="1">
-        <v>-164.043000</v>
+        <v>-164.04300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>61231.741464</v>
+        <v>61231.741463999999</v>
       </c>
       <c r="L23" s="1">
-        <v>17.008817</v>
+        <v>17.008817000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>942.997000</v>
+        <v>942.99699999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.805000</v>
+        <v>-117.80500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>61241.680794</v>
@@ -5923,193 +6339,193 @@
         <v>17.011578</v>
       </c>
       <c r="R23" s="1">
-        <v>949.372000</v>
+        <v>949.37199999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.961000</v>
+        <v>-102.961</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>61252.157820</v>
+        <v>61252.15782</v>
       </c>
       <c r="V23" s="1">
         <v>17.014488</v>
       </c>
       <c r="W23" s="1">
-        <v>955.905000</v>
+        <v>955.90499999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.565300</v>
+        <v>-89.565299999999993</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>61262.809405</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.017447</v>
+        <v>17.017447000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.169000</v>
+        <v>963.16899999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.236100</v>
+        <v>-80.236099999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>61273.243217</v>
+        <v>61273.243217000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>17.020345</v>
+        <v>17.020344999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.243000</v>
+        <v>968.24300000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.920600</v>
+        <v>-79.920599999999993</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>61283.371531</v>
+        <v>61283.371530999997</v>
       </c>
       <c r="AK23" s="1">
         <v>17.023159</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.136000</v>
+        <v>976.13599999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.988700</v>
+        <v>-87.988699999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>61294.288501</v>
+        <v>61294.288501000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>17.026191</v>
+        <v>17.026191000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.391000</v>
+        <v>985.39099999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.131000</v>
+        <v>-103.131</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>61305.102279</v>
+        <v>61305.102278999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>17.029195</v>
+        <v>17.029195000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.912000</v>
+        <v>996.91200000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.878000</v>
+        <v>-124.878</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>61316.092138</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.032248</v>
+        <v>17.032247999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.815000</v>
+        <v>-143.815</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>61327.091897</v>
+        <v>61327.091896999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.035303</v>
+        <v>17.035302999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.610000</v>
+        <v>1052.6099999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.242000</v>
+        <v>-229.24199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>61338.598360</v>
+        <v>61338.598360000004</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.038500</v>
+        <v>17.038499999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.460000</v>
+        <v>1133.46</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.559000</v>
+        <v>-365.55900000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>61350.155355</v>
+        <v>61350.155355000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.041710</v>
+        <v>17.041709999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.780000</v>
+        <v>1266.78</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-574.906000</v>
+        <v>-574.90599999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>61361.594109</v>
+        <v>61361.594108999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.044887</v>
+        <v>17.044886999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1415.520000</v>
+        <v>1415.52</v>
       </c>
       <c r="BV23" s="1">
-        <v>-797.167000</v>
+        <v>-797.16700000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>61372.492228</v>
+        <v>61372.492228000003</v>
       </c>
       <c r="BY23" s="1">
         <v>17.047915</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1578.370000</v>
+        <v>1578.37</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1029.040000</v>
+        <v>-1029.04</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>61386.328619</v>
@@ -6118,786 +6534,787 @@
         <v>17.051758</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.730000</v>
+        <v>1986.73</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1568.030000</v>
+        <v>-1568.03</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>61211.837506</v>
+        <v>61211.837506000003</v>
       </c>
       <c r="B24" s="1">
-        <v>17.003288</v>
+        <v>17.003288000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>905.181000</v>
+        <v>905.18100000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-193.379000</v>
+        <v>-193.37899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>61221.923684</v>
+        <v>61221.923684000001</v>
       </c>
       <c r="G24" s="1">
-        <v>17.006090</v>
+        <v>17.00609</v>
       </c>
       <c r="H24" s="1">
-        <v>921.354000</v>
+        <v>921.35400000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.166000</v>
+        <v>-164.166</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>61232.091179</v>
+        <v>61232.091179000003</v>
       </c>
       <c r="L24" s="1">
-        <v>17.008914</v>
+        <v>17.008914000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>942.958000</v>
+        <v>942.95799999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.925000</v>
+        <v>-117.925</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>61242.108347</v>
+        <v>61242.108347000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.011697</v>
+        <v>17.011697000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>949.357000</v>
+        <v>949.35699999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.948000</v>
+        <v>-102.94799999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>61252.585372</v>
+        <v>61252.585372000001</v>
       </c>
       <c r="V24" s="1">
-        <v>17.014607</v>
+        <v>17.014607000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>955.800000</v>
+        <v>955.8</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.465400</v>
+        <v>-89.465400000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>61263.091103</v>
+        <v>61263.091102999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.017525</v>
+        <v>17.017524999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.180000</v>
+        <v>963.18</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.365900</v>
+        <v>-80.365899999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>61273.511552</v>
+        <v>61273.511552000004</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.020420</v>
+        <v>17.020420000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.099000</v>
+        <v>968.09900000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.033600</v>
+        <v>-80.033600000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>61283.719971</v>
+        <v>61283.719970999999</v>
       </c>
       <c r="AK24" s="1">
         <v>17.023256</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.157000</v>
+        <v>976.15700000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.973300</v>
+        <v>-87.973299999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>61294.645620</v>
+        <v>61294.645620000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.026290</v>
+        <v>17.026289999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.417000</v>
+        <v>985.41700000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.116000</v>
+        <v>-103.116</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>61305.465846</v>
+        <v>61305.465845999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.029296</v>
+        <v>17.029295999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.909000</v>
+        <v>996.90899999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.910000</v>
+        <v>-124.91</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>61316.813319</v>
+        <v>61316.813319000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>17.032448</v>
+        <v>17.032447999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.650000</v>
+        <v>1006.65</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.820000</v>
+        <v>-143.82</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>61327.469834</v>
+        <v>61327.469834000003</v>
       </c>
       <c r="BE24" s="1">
         <v>17.035408</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.650000</v>
+        <v>1052.6500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.243000</v>
+        <v>-229.24299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>61338.997355</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.038610</v>
+        <v>17.038609999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.480000</v>
+        <v>1133.48</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.556000</v>
+        <v>-365.55599999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>61350.547340</v>
+        <v>61350.547339999997</v>
       </c>
       <c r="BO24" s="1">
         <v>17.041819</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.800000</v>
+        <v>1266.8</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-574.920000</v>
+        <v>-574.91999999999996</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>61362.334155</v>
+        <v>61362.334154999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.045093</v>
+        <v>17.045093000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1415.530000</v>
+        <v>1415.53</v>
       </c>
       <c r="BV24" s="1">
-        <v>-797.173000</v>
+        <v>-797.173</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>61373.235729</v>
       </c>
       <c r="BY24" s="1">
-        <v>17.048121</v>
+        <v>17.048120999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1578.300000</v>
+        <v>1578.3</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1028.970000</v>
+        <v>-1028.97</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>61386.555259</v>
+        <v>61386.555259000001</v>
       </c>
       <c r="CD24" s="1">
         <v>17.051821</v>
       </c>
       <c r="CE24" s="1">
-        <v>1987.170000</v>
+        <v>1987.17</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1567.990000</v>
+        <v>-1567.99</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>61212.179262</v>
+        <v>61212.179261999998</v>
       </c>
       <c r="B25" s="1">
-        <v>17.003383</v>
+        <v>17.003382999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>904.993000</v>
+        <v>904.99300000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-193.273000</v>
+        <v>-193.273</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>61222.266925</v>
+        <v>61222.266925000004</v>
       </c>
       <c r="G25" s="1">
-        <v>17.006185</v>
+        <v>17.006184999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>921.063000</v>
+        <v>921.06299999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-164.137000</v>
+        <v>-164.137</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>61232.508774</v>
+        <v>61232.508774000002</v>
       </c>
       <c r="L25" s="1">
-        <v>17.009030</v>
+        <v>17.009029999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>943.023000</v>
+        <v>943.02300000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.008000</v>
+        <v>-118.008</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>61242.397056</v>
+        <v>61242.397056000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>17.011777</v>
+        <v>17.011776999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>949.341000</v>
+        <v>949.34100000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.920000</v>
+        <v>-102.92</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>61252.852715</v>
+        <v>61252.852715000001</v>
       </c>
       <c r="V25" s="1">
         <v>17.014681</v>
       </c>
       <c r="W25" s="1">
-        <v>955.764000</v>
+        <v>955.76400000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.549400</v>
+        <v>-89.549400000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>61263.440286</v>
+        <v>61263.440285999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.017622</v>
+        <v>17.017621999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.165000</v>
+        <v>963.16499999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.284900</v>
+        <v>-80.284899999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>61273.852313</v>
+        <v>61273.852313000003</v>
       </c>
       <c r="AF25" s="1">
         <v>17.020515</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.146000</v>
+        <v>968.14599999999996</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.023300</v>
+        <v>-80.023300000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>61284.068898</v>
+        <v>61284.068897999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.023352</v>
+        <v>17.023351999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.138000</v>
+        <v>976.13800000000003</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.984500</v>
+        <v>-87.984499999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>61295.377220</v>
+        <v>61295.377220000002</v>
       </c>
       <c r="AP25" s="1">
         <v>17.026494</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.402000</v>
+        <v>985.40200000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.130000</v>
+        <v>-103.13</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>61306.192951</v>
+        <v>61306.192950999997</v>
       </c>
       <c r="AU25" s="1">
         <v>17.029498</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.901000</v>
+        <v>996.90099999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.878000</v>
+        <v>-124.878</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>61317.192727</v>
+        <v>61317.192727000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.032554</v>
+        <v>17.032554000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.640000</v>
+        <v>1006.64</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.812000</v>
+        <v>-143.81200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>61327.829433</v>
+        <v>61327.829432999999</v>
       </c>
       <c r="BE25" s="1">
         <v>17.035508</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.630000</v>
+        <v>1052.6300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.242000</v>
+        <v>-229.24199999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>61339.373356</v>
+        <v>61339.373355999996</v>
       </c>
       <c r="BJ25" s="1">
         <v>17.038715</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.543000</v>
+        <v>-365.54300000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>61351.280283</v>
       </c>
       <c r="BO25" s="1">
-        <v>17.042022</v>
+        <v>17.042021999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.820000</v>
+        <v>1266.82</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-574.839000</v>
+        <v>-574.83900000000006</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>61362.466587</v>
+        <v>61362.466587000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>17.045130</v>
+        <v>17.04513</v>
       </c>
       <c r="BU25" s="1">
-        <v>1415.600000</v>
+        <v>1415.6</v>
       </c>
       <c r="BV25" s="1">
-        <v>-797.163000</v>
+        <v>-797.16300000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>61373.764428</v>
+        <v>61373.764428000002</v>
       </c>
       <c r="BY25" s="1">
         <v>17.048268</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1578.400000</v>
+        <v>1578.4</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1029.090000</v>
+        <v>-1029.0899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>61387.076565</v>
+        <v>61387.076565000003</v>
       </c>
       <c r="CD25" s="1">
         <v>17.051966</v>
       </c>
       <c r="CE25" s="1">
-        <v>1985.540000</v>
+        <v>1985.54</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1568.500000</v>
+        <v>-1568.5</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>61212.601840</v>
+        <v>61212.601840000003</v>
       </c>
       <c r="B26" s="1">
         <v>17.003501</v>
       </c>
       <c r="C26" s="1">
-        <v>904.929000</v>
+        <v>904.92899999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-193.139000</v>
+        <v>-193.13900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>61222.691461</v>
+        <v>61222.691461000002</v>
       </c>
       <c r="G26" s="1">
-        <v>17.006303</v>
+        <v>17.006302999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>921.376000</v>
+        <v>921.37599999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.940000</v>
+        <v>-163.94</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>61232.801446</v>
+        <v>61232.801445999998</v>
       </c>
       <c r="L26" s="1">
-        <v>17.009112</v>
+        <v>17.009111999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>942.957000</v>
+        <v>942.95699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.896000</v>
+        <v>-117.896</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>61242.743227</v>
+        <v>61242.743226999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>17.011873</v>
+        <v>17.011873000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>949.378000</v>
+        <v>949.37800000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.915000</v>
+        <v>-102.91500000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>61253.195952</v>
+        <v>61253.195952000002</v>
       </c>
       <c r="V26" s="1">
-        <v>17.014777</v>
+        <v>17.014776999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.819000</v>
+        <v>955.81899999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.585900</v>
+        <v>-89.585899999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>61263.778062</v>
+        <v>61263.778061999998</v>
       </c>
       <c r="AA26" s="1">
         <v>17.017716</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.151000</v>
+        <v>963.15099999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.336100</v>
+        <v>-80.336100000000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>61274.445519</v>
+        <v>61274.445519000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.020679</v>
+        <v>17.020679000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.144000</v>
+        <v>968.14400000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.032100</v>
+        <v>-80.0321</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>61284.765812</v>
+        <v>61284.765811999998</v>
       </c>
       <c r="AK26" s="1">
         <v>17.023546</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.138000</v>
+        <v>976.13800000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.988900</v>
+        <v>-87.988900000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>61295.756628</v>
+        <v>61295.756628000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.026599</v>
+        <v>17.026599000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.400000</v>
+        <v>985.4</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.112000</v>
+        <v>-103.11199999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>61306.556517</v>
+        <v>61306.556516999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.029599</v>
+        <v>17.029599000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.913000</v>
+        <v>996.91300000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.883000</v>
+        <v>-124.883</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>61317.567731</v>
+        <v>61317.567731000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>17.032658</v>
+        <v>17.032658000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.670000</v>
+        <v>1006.67</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.818000</v>
+        <v>-143.81800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>61328.496552</v>
+        <v>61328.496551999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.035693</v>
+        <v>17.035692999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.640000</v>
+        <v>1052.6400000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.248000</v>
+        <v>-229.24799999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>61340.069245</v>
+        <v>61340.069244999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>17.038908</v>
+        <v>17.038907999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.450000</v>
+        <v>1133.45</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.552000</v>
+        <v>-365.55200000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>61351.784745</v>
+        <v>61351.784744999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.042162</v>
+        <v>17.042162000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.810000</v>
+        <v>1266.81</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-574.917000</v>
+        <v>-574.91700000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>61362.878264</v>
+        <v>61362.878263999999</v>
       </c>
       <c r="BT26" s="1">
         <v>17.045244</v>
       </c>
       <c r="BU26" s="1">
-        <v>1415.680000</v>
+        <v>1415.68</v>
       </c>
       <c r="BV26" s="1">
-        <v>-797.110000</v>
+        <v>-797.11</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>61374.186028</v>
+        <v>61374.186027999996</v>
       </c>
       <c r="BY26" s="1">
         <v>17.048385</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1578.410000</v>
+        <v>1578.41</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1028.980000</v>
+        <v>-1028.98</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>61387.595898</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.052110</v>
+        <v>17.052109999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1986.180000</v>
+        <v>1986.18</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1568.300000</v>
+        <v>-1568.3</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>